--- a/registration_details.xlsx
+++ b/registration_details.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" state="visible" r:id="rId1"/>
@@ -423,8 +423,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -470,32 +470,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>r230014</t>
+          <t>r230014@famt.ac.in</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>r230014@famt.ac.in</t>
+          <t>Samiya</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Samiya Khalid Akhatar Budye</t>
+          <t>$2b$12$J55QWV5Dai8.x34A7o9lwufpgAhn/4oWgfrFuPZtc2idJVDFJL25C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>student</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>saamia.kb@gmail.com</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$2b$12$NGK9X3gne.ZNkNhE9RdkyOwEBpucto3t7M3P46fIo5i2/R0g2pni6</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>student</t>
         </is>
       </c>
     </row>
@@ -512,7 +507,7 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/registration_details.xlsx
+++ b/registration_details.xlsx
@@ -1,34 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saami\OneDrive\Documents\flask_app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Students" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Teachers" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Students" sheetId="1" r:id="rId1"/>
+    <sheet name="Teachers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+  <si>
+    <t>Registration Number</t>
+  </si>
+  <si>
+    <t>College email ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Parent's Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>r230014@famt.ac.in</t>
+  </si>
+  <si>
+    <t>Samiya</t>
+  </si>
+  <si>
+    <t>$2b$12$J55QWV5Dai8.x34A7o9lwufpgAhn/4oWgfrFuPZtc2idJVDFJL25C</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>saamia.kb@gmail.com</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>$2b$12$WmM9g0srbtmYX/DR4BlpSeQYnC83WF8NAT0E5uPNFZhAojJmDux8i</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>Samiya Khalid Akhatar Budye</t>
+  </si>
+  <si>
+    <t>$2b$12$1Rz4qCdw65tmCT5R1sQG2.mCqQEOyDZTYu4WSy7IDRKejTmtP5Psi</t>
+  </si>
+  <si>
+    <t>DS,DSGT</t>
+  </si>
+  <si>
+    <t>samikb@gmail.com</t>
+  </si>
+  <si>
+    <t>asdfghjkl</t>
+  </si>
+  <si>
+    <t>$2b$12$rjvGVHSl3QEeHGTGpGWEVeMFnUY04GO7RNPl5TdUCIaONWd0uPIwy</t>
+  </si>
+  <si>
+    <t>EMIII, OOPM</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,86 +128,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -416,82 +438,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+    <sheetView zoomScale="104" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="12.44140625" customWidth="1" min="1" max="1"/>
-    <col width="26" customWidth="1" min="3" max="3"/>
-    <col width="24.77734375" customWidth="1" min="4" max="4"/>
-    <col width="62.6640625" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Registration Number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>College email ID</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Parent's Email</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
+    <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>r230014@famt.ac.in</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Samiya</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>$2b$12$J55QWV5Dai8.x34A7o9lwufpgAhn/4oWgfrFuPZtc2idJVDFJL25C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>saamia.kb@gmail.com</t>
-        </is>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -500,105 +496,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="14.44140625" customWidth="1" min="1" max="1"/>
-    <col width="15.6640625" customWidth="1" min="2" max="2"/>
-    <col width="18.33203125" customWidth="1" min="3" max="3"/>
-    <col width="21.21875" customWidth="1" min="4" max="4"/>
-    <col width="23.77734375" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Subjects</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>abc@gmail.com</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Samiya</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>$2b$12$WmM9g0srbtmYX/DR4BlpSeQYnC83WF8NAT0E5uPNFZhAojJmDux8i</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>teacher</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>AI, DWHM, DLCOA</t>
-        </is>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>abcd@gmail.com</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Samiya Khalid Akhatar Budye</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>$2b$12$1Rz4qCdw65tmCT5R1sQG2.mCqQEOyDZTYu4WSy7IDRKejTmtP5Psi</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>teacher</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DS,DSGT</t>
-        </is>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
